--- a/Excel/Herman (HTML Catalog Parser)/Herman_parsed_by_selectors.xlsx
+++ b/Excel/Herman (HTML Catalog Parser)/Herman_parsed_by_selectors.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\Herman (HTML Catalog Parser)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AAA21250-05B2-4A28-82D8-D1E26B357EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE53D8D-3A7B-42D7-B1B6-F401E40917ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Herman_parsed_by_selectors" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -808,9 +819,6 @@
     <t>100% Wool Felt | Colors : Navy - Black - Camel - Grey - Rust Sizes : 55 - 57 - 59 - 61</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>60% Cotton - 40% Polyester | Color : Washed Brown (Non-waterproof) Colors : Brown - Charcoal (Waterproof) Sizes : 57 - 59</t>
   </si>
   <si>
@@ -1328,12 +1336,15 @@
   </si>
   <si>
     <t>One size (8,5)</t>
+  </si>
+  <si>
+    <t>Info</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1488,7 +1499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1668,6 +1679,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1829,9 +1846,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2186,21 +2205,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H146"/>
+    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="95.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="124.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="124.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="11.85546875" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="54.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="78.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2210,25 +2230,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2238,26 +2258,26 @@
       <c r="B2" t="s">
         <v>186</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <f>FIND("|",B2)</f>
         <v>59</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <f>FIND("Colors",B2)</f>
         <v>61</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f>FIND("Sizes",B2)</f>
         <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2267,26 +2287,26 @@
       <c r="B3" t="s">
         <v>187</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <f t="shared" ref="C3:C66" si="0">FIND("|",B3)</f>
         <v>59</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D66" si="1">FIND("Colors",B3)</f>
         <v>61</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E66" si="2">FIND("Sizes",B3)</f>
         <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2296,26 +2316,26 @@
       <c r="B4" t="s">
         <v>188</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2325,26 +2345,26 @@
       <c r="B5" t="s">
         <v>189</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2354,26 +2374,26 @@
       <c r="B6" t="s">
         <v>190</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2383,26 +2403,26 @@
       <c r="B7" t="s">
         <v>191</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2412,26 +2432,26 @@
       <c r="B8" t="s">
         <v>250</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2441,26 +2461,26 @@
       <c r="B9" t="s">
         <v>255</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2470,26 +2490,26 @@
       <c r="B10" t="s">
         <v>256</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2499,26 +2519,26 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2528,26 +2548,26 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2557,26 +2577,26 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2586,26 +2606,26 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2615,26 +2635,26 @@
       <c r="B15" t="s">
         <v>192</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2644,26 +2664,26 @@
       <c r="B16" t="s">
         <v>193</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2673,26 +2693,26 @@
       <c r="B17" t="s">
         <v>194</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2702,26 +2722,26 @@
       <c r="B18" t="s">
         <v>195</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2731,26 +2751,26 @@
       <c r="B19" t="s">
         <v>196</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2760,26 +2780,26 @@
       <c r="B20" t="s">
         <v>251</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2789,26 +2809,26 @@
       <c r="B21" t="s">
         <v>257</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2818,26 +2838,26 @@
       <c r="B22" t="s">
         <v>197</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2847,26 +2867,26 @@
       <c r="B23" t="s">
         <v>198</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2876,26 +2896,26 @@
       <c r="B24" t="s">
         <v>199</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2905,26 +2925,26 @@
       <c r="B25" t="s">
         <v>200</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2934,26 +2954,26 @@
       <c r="B26" t="s">
         <v>201</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2963,26 +2983,26 @@
       <c r="B27" t="s">
         <v>202</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2992,26 +3012,26 @@
       <c r="B28" t="s">
         <v>202</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3021,26 +3041,26 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3050,26 +3070,26 @@
       <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3079,26 +3099,26 @@
       <c r="B31" t="s">
         <v>252</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3108,26 +3128,26 @@
       <c r="B32" t="s">
         <v>253</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3137,26 +3157,26 @@
       <c r="B33" t="s">
         <v>203</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3166,26 +3186,26 @@
       <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3195,26 +3215,26 @@
       <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="F35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3224,26 +3244,26 @@
       <c r="B36" t="s">
         <v>254</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3253,26 +3273,26 @@
       <c r="B37" t="s">
         <v>258</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3282,26 +3302,26 @@
       <c r="B38" t="s">
         <v>259</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -3311,26 +3331,26 @@
       <c r="B39" t="s">
         <v>260</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3340,26 +3360,26 @@
       <c r="B40" t="s">
         <v>204</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="F40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3369,26 +3389,26 @@
       <c r="B41" t="s">
         <v>205</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3398,26 +3418,26 @@
       <c r="B42" t="s">
         <v>206</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H42" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3427,26 +3447,26 @@
       <c r="B43" t="s">
         <v>46</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H43" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3456,26 +3476,26 @@
       <c r="B44" t="s">
         <v>48</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3485,26 +3505,26 @@
       <c r="B45" t="s">
         <v>50</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H45" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3514,26 +3534,26 @@
       <c r="B46" t="s">
         <v>50</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="F46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3543,26 +3563,26 @@
       <c r="B47" t="s">
         <v>207</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="F47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H47" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3570,28 +3590,28 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>263</v>
-      </c>
-      <c r="C48">
+        <v>262</v>
+      </c>
+      <c r="C48" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="F48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3601,26 +3621,26 @@
       <c r="B49" t="s">
         <v>208</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="F49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G49" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H49" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3630,26 +3650,26 @@
       <c r="B50" t="s">
         <v>56</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="F50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H50" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3659,26 +3679,26 @@
       <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3686,28 +3706,28 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>264</v>
-      </c>
-      <c r="C52">
+        <v>263</v>
+      </c>
+      <c r="C52" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="F52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H52" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3715,28 +3735,28 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>265</v>
-      </c>
-      <c r="C53">
+        <v>264</v>
+      </c>
+      <c r="C53" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="F53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G53" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3744,28 +3764,28 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C54">
+        <v>265</v>
+      </c>
+      <c r="C54" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="F54" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G54" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3775,26 +3795,26 @@
       <c r="B55" t="s">
         <v>62</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="F55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3804,26 +3824,26 @@
       <c r="B56" t="s">
         <v>209</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="F56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G56" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H56" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3833,26 +3853,26 @@
       <c r="B57" t="s">
         <v>65</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H57" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3862,26 +3882,26 @@
       <c r="B58" t="s">
         <v>67</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G58" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3891,26 +3911,26 @@
       <c r="B59" t="s">
         <v>261</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="F59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3920,26 +3940,26 @@
       <c r="B60" t="s">
         <v>210</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H60" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3949,26 +3969,26 @@
       <c r="B61" t="s">
         <v>71</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="F61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H61" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3978,26 +3998,26 @@
       <c r="B62" t="s">
         <v>211</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="F62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G62" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H62" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -4007,26 +4027,26 @@
       <c r="B63" t="s">
         <v>74</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H63" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4036,26 +4056,26 @@
       <c r="B64" t="s">
         <v>76</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H64" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4065,26 +4085,26 @@
       <c r="B65" t="s">
         <v>212</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="F65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4094,26 +4114,26 @@
       <c r="B66" t="s">
         <v>213</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="F66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G66" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H66" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4123,26 +4143,26 @@
       <c r="B67" t="s">
         <v>214</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <f t="shared" ref="C67:C130" si="3">FIND("|",B67)</f>
         <v>16</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <f t="shared" ref="D67:D130" si="4">FIND("Colors",B67)</f>
         <v>18</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <f t="shared" ref="E67:E130" si="5">FIND("Sizes",B67)</f>
         <v>75</v>
       </c>
       <c r="F67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G67" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H67" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4152,26 +4172,26 @@
       <c r="B68" t="s">
         <v>215</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="F68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G68" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4181,26 +4201,26 @@
       <c r="B69" t="s">
         <v>216</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="F69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4210,26 +4230,26 @@
       <c r="B70" t="s">
         <v>217</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="F70" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G70" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H70" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4239,26 +4259,26 @@
       <c r="B71" t="s">
         <v>217</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="F71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G71" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H71" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4268,26 +4288,26 @@
       <c r="B72" t="s">
         <v>217</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="3">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="F72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G72" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H72" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4297,26 +4317,26 @@
       <c r="B73" t="s">
         <v>217</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="F73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G73" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H73" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4326,26 +4346,26 @@
       <c r="B74" t="s">
         <v>218</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="F74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H74" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4355,26 +4375,26 @@
       <c r="B75" t="s">
         <v>218</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="F75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H75" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4384,26 +4404,26 @@
       <c r="B76" t="s">
         <v>219</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="F76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G76" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H76" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4413,26 +4433,26 @@
       <c r="B77" t="s">
         <v>90</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="F77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H77" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4442,26 +4462,26 @@
       <c r="B78" t="s">
         <v>92</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G78" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H78" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -4471,26 +4491,26 @@
       <c r="B79" t="s">
         <v>94</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G79" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H79" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4500,26 +4520,26 @@
       <c r="B80" t="s">
         <v>218</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="F80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G80" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H80" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4529,26 +4549,26 @@
       <c r="B81" t="s">
         <v>97</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G81" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H81" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4558,26 +4578,26 @@
       <c r="B82" t="s">
         <v>99</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="3">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="F82" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G82" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H82" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4587,26 +4607,26 @@
       <c r="B83" t="s">
         <v>219</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="F83" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G83" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H83" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4616,26 +4636,26 @@
       <c r="B84" t="s">
         <v>220</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="3">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="F84" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G84" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H84" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4645,26 +4665,26 @@
       <c r="B85" t="s">
         <v>103</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="F85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G85" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H85" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4674,26 +4694,26 @@
       <c r="B86" t="s">
         <v>221</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="3">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="F86" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G86" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H86" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4703,26 +4723,26 @@
       <c r="B87" t="s">
         <v>222</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="3">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="F87" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G87" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H87" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4732,26 +4752,26 @@
       <c r="B88" t="s">
         <v>223</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="3">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="F88" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G88" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H88" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4761,26 +4781,26 @@
       <c r="B89" t="s">
         <v>108</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="F89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G89" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H89" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4790,26 +4810,26 @@
       <c r="B90" t="s">
         <v>224</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="3">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="F90" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G90" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H90" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4819,26 +4839,26 @@
       <c r="B91" t="s">
         <v>225</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="3">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="F91" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G91" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H91" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4848,26 +4868,26 @@
       <c r="B92" t="s">
         <v>226</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="3">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="F92" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G92" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H92" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4877,26 +4897,26 @@
       <c r="B93" t="s">
         <v>227</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="F93" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G93" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H93" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4906,26 +4926,26 @@
       <c r="B94" t="s">
         <v>228</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="F94" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G94" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H94" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4935,26 +4955,26 @@
       <c r="B95" t="s">
         <v>229</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="3">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="F95" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G95" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H95" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4964,26 +4984,26 @@
       <c r="B96" t="s">
         <v>230</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="3">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="F96" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G96" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H96" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4993,26 +5013,26 @@
       <c r="B97" t="s">
         <v>117</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="F97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G97" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H97" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -5022,26 +5042,26 @@
       <c r="B98" t="s">
         <v>119</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="F98" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G98" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H98" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -5051,26 +5071,26 @@
       <c r="B99" t="s">
         <v>121</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="F99" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G99" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H99" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -5080,26 +5100,26 @@
       <c r="B100" t="s">
         <v>123</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G100" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H100" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -5109,26 +5129,26 @@
       <c r="B101" t="s">
         <v>125</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G101" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H101" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -5138,26 +5158,26 @@
       <c r="B102" t="s">
         <v>127</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="3">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="F102" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G102" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H102" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -5167,26 +5187,26 @@
       <c r="B103" t="s">
         <v>129</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G103" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H103" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -5196,26 +5216,26 @@
       <c r="B104" t="s">
         <v>131</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="3">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="3">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="F104" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G104" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H104" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -5225,26 +5245,26 @@
       <c r="B105" t="s">
         <v>133</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="3">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="F105" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G105" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H105" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -5254,26 +5274,26 @@
       <c r="B106" t="s">
         <v>231</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="3">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="F106" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G106" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H106" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -5283,26 +5303,26 @@
       <c r="B107" t="s">
         <v>185</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="3">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G107" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H107" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -5312,26 +5332,26 @@
       <c r="B108" t="s">
         <v>137</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="3">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="F108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G108" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H108" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -5341,26 +5361,26 @@
       <c r="B109" t="s">
         <v>232</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="3">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="F109" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G109" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H109" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -5370,26 +5390,26 @@
       <c r="B110" t="s">
         <v>233</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="3">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="F110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G110" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H110" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -5399,26 +5419,26 @@
       <c r="B111" t="s">
         <v>234</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="3">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="F111" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G111" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H111" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -5428,26 +5448,26 @@
       <c r="B112" t="s">
         <v>235</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="3">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="F112" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G112" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H112" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -5457,26 +5477,26 @@
       <c r="B113" t="s">
         <v>234</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="3">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="F113" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G113" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H113" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -5486,26 +5506,26 @@
       <c r="B114" t="s">
         <v>236</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="3">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="3">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="3">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="F114" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G114" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H114" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -5515,26 +5535,26 @@
       <c r="B115" t="s">
         <v>145</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="3">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="F115" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G115" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H115" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -5544,26 +5564,26 @@
       <c r="B116" t="s">
         <v>145</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="3">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="F116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G116" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H116" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -5573,26 +5593,26 @@
       <c r="B117" t="s">
         <v>148</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="3">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="F117" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G117" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -5602,26 +5622,26 @@
       <c r="B118" t="s">
         <v>150</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="3">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="F118" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G118" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H118" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -5631,26 +5651,26 @@
       <c r="B119" t="s">
         <v>237</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="3">
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="F119" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G119" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H119" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -5660,26 +5680,26 @@
       <c r="B120" t="s">
         <v>238</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="3">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="3">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="3">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="F120" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H120" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -5689,26 +5709,26 @@
       <c r="B121" t="s">
         <v>154</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="3">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="F121" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H121" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -5718,26 +5738,26 @@
       <c r="B122" t="s">
         <v>239</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="3">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="3">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="3">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="F122" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G122" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H122" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -5747,26 +5767,26 @@
       <c r="B123" t="s">
         <v>240</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="3">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="3">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="3">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="F123" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G123" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H123" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -5776,26 +5796,26 @@
       <c r="B124" t="s">
         <v>158</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="3">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="3">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="3">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="F124" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G124" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H124" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -5805,26 +5825,26 @@
       <c r="B125" t="s">
         <v>241</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="3">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="3">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="3">
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="F125" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G125" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H125" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -5834,26 +5854,26 @@
       <c r="B126" t="s">
         <v>241</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="3">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="3">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="3">
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="F126" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G126" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H126" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -5863,26 +5883,26 @@
       <c r="B127" t="s">
         <v>241</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="3">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="3">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="3">
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="F127" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G127" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H127" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -5892,26 +5912,26 @@
       <c r="B128" t="s">
         <v>241</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="3">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="3">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="3">
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="F128" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G128" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H128" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -5921,26 +5941,26 @@
       <c r="B129" t="s">
         <v>242</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="3">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="3">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="3">
         <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="F129" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G129" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H129" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -5950,26 +5970,26 @@
       <c r="B130" t="s">
         <v>242</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="3">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="3">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="3">
         <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="F130" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G130" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H130" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -5979,26 +5999,26 @@
       <c r="B131" t="s">
         <v>242</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="3">
         <f t="shared" ref="C131:C146" si="6">FIND("|",B131)</f>
         <v>24</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="3">
         <f t="shared" ref="D131:D146" si="7">FIND("Colors",B131)</f>
         <v>26</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="3">
         <f t="shared" ref="E131:E146" si="8">FIND("Sizes",B131)</f>
         <v>105</v>
       </c>
       <c r="F131" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G131" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H131" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -6008,26 +6028,26 @@
       <c r="B132" t="s">
         <v>242</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="3">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="3">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="3">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
       <c r="F132" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G132" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H132" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -6037,26 +6057,26 @@
       <c r="B133" t="s">
         <v>242</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="3">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="3">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="3">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
       <c r="F133" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G133" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H133" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -6066,26 +6086,26 @@
       <c r="B134" t="s">
         <v>182</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="3">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="3">
         <f t="shared" si="7"/>
         <v>44</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="3">
         <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="F134" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G134" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H134" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -6095,26 +6115,26 @@
       <c r="B135" t="s">
         <v>243</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="3">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="3">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="3">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="F135" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G135" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H135" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -6124,26 +6144,26 @@
       <c r="B136" t="s">
         <v>244</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="3">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="3">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="3">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="F136" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G136" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H136" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -6151,28 +6171,28 @@
         <v>170</v>
       </c>
       <c r="B137" t="s">
-        <v>267</v>
-      </c>
-      <c r="C137">
+        <v>266</v>
+      </c>
+      <c r="C137" s="3">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="3">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="3">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G137" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H137" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -6182,26 +6202,26 @@
       <c r="B138" t="s">
         <v>183</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="3">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="3">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="3">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G138" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H138" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -6211,26 +6231,26 @@
       <c r="B139" t="s">
         <v>173</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="3">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="3">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="3">
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="F139" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G139" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H139" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -6240,26 +6260,26 @@
       <c r="B140" t="s">
         <v>184</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="3">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="3">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="3">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G140" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H140" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -6269,26 +6289,26 @@
       <c r="B141" t="s">
         <v>176</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="3">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="3">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="3">
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="F141" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G141" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H141" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -6298,26 +6318,26 @@
       <c r="B142" t="s">
         <v>245</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="3">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="3">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="3">
         <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="F142" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G142" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H142" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -6327,26 +6347,26 @@
       <c r="B143" t="s">
         <v>245</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="3">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="3">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="3">
         <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="F143" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G143" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H143" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -6356,26 +6376,26 @@
       <c r="B144" t="s">
         <v>246</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="3">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="3">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="3">
         <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="F144" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G144" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H144" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -6385,26 +6405,26 @@
       <c r="B145" t="s">
         <v>247</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="3">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="3">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="3">
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="F145" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G145" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H145" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -6414,26 +6434,26 @@
       <c r="B146" t="s">
         <v>248</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="3">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="3">
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="3">
         <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="F146" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G146" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H146" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
